--- a/POSTGRESQL/07_SYSTEM.xlsx
+++ b/POSTGRESQL/07_SYSTEM.xlsx
@@ -21,13 +21,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,12 +49,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,14 +429,1971 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>entity_type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>entity_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>performed_by</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>changes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>performed_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"status": "completed"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:29:46.069469+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"status": "in_progress"}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:29:31.964766+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"status": "quotation_sent"}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:29:16.685062+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>New kitas_application practice created</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:28:47.278884+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"status": "completed"}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:13:36.882814+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"status": "in_progress"}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:13:23.536399+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"status": "quotation_sent"}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:13:06.937327+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>New pt_pma_setup practice created</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-10T06:12:37.652453+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>81</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, company_name, nationality, passport_number, passport_expiry, status, client_type, assigned_to, avatar_url, address, notes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:30:14.081028+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>46</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Practice marked as cancelled</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:14:36.564258+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"status": "in_progress"}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:14:36.427505+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>44</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>New pt_pma_setup practice created</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:14:36.290784+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>43</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Practice marked as cancelled</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:07:57.949266+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{"notes": "Updated by Claude", "status": "in_progress"}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Updated: status, notes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:07:57.800565+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>New pt_pma_setup practice created</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:07:57.652370+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{"notes": "Updated by Claude", "status": "in_progress"}</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Updated: status, notes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:05:36.958976+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>New pt_pma_setup practice created</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:05:36.824137+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>New tax_consulting practice created</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-01-10T04:53:53.859716+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>81</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Updated fields: status, notes</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-01-10T04:47:30.575439+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>81</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-01-10T04:21:30.072968+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>76</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, company_name, nationality, passport_number, passport_expiry, status, client_type, assigned_to, avatar_url, address, notes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-01-07T02:18:15.480295+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>76</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, company_name, nationality, passport_number, passport_expiry, status, client_type, assigned_to, avatar_url, address, notes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-01-07T02:17:54.075349+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>59</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-01-06T14:51:00.281646+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>61</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-01-06T14:18:44.084352+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>79</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-01-06T14:18:18.035770+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>30</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>79</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-01-06T14:18:13.949424+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>76</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, company_name, nationality, passport_number, passport_expiry, status, client_type, assigned_to, avatar_url, address, notes</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-01-05T07:24:51.792064+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>New kitas_application practice created</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-01-05T05:43:27.339735+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>11</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>{"status": "quotation_sent"}</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-01-05T04:25:07.554154+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>26</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>New kitas_application practice created</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-01-05T04:24:10.719336+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>78</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, company_name, nationality, passport_number, passport_expiry, status, client_type, assigned_to, avatar_url, address, notes</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-01-05T03:43:46.926094+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>68</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-01-05T03:33:09.310166+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>78</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-01-05T03:32:59.261056+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>22</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>62</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:46:11.739184+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>62</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:46:00.218385+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>77</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:45:06.672478+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>77</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:45:06.532105+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>78</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:44:56.375168+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>76</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, nationality, passport_number, status, client_type, assigned_to, address, notes</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-01-04T21:10:34.564091+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>76</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Updated fields: full_name, email, phone, whatsapp, nationality, passport_number, status, client_type, assigned_to, address, notes</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:31:20.960834+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>15</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>58</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:06:32.891212+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>14</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>60</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:06:26.809288+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:06:19.898277+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>12</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:06:14.489333+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:06:08.916165+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:06:02.435116+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>9</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:05:57.370812+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:05:47.181702+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>57</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:05:31.329853+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>58</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:05:18.374190+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>client</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>67</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Client marked as inactive</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-01-03T06:05:01.160622+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>New kitas_application practice created</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2026-01-02T05:03:40.985151+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>New kitap_application practice created</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-12-31T14:06:50.189616+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>{"status": "inquiry"}</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Updated: status</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:08:16.836583+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>New kitas_application practice created</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-12-31T12:39:14.759116+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -435,14 +2404,756 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>migration_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>migration_number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>applied_at</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>execution_time_ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001_fix_missing_tables</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:41.435491+00:00</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002_memory_system_schema</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:41.563657+00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003_work_sessions_schema</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:41.707423+00:00</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004_profile_photos_fix</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:41.774789+00:00</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005_oracle_knowledge_bases</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:52:35.661792+00:00</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006_property_and_tax_tables</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:52:35.738905+00:00</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007_crm_system_schema</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-12-16T22:32:16.982201+00:00</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008_v5_3_ultra_hybrid</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:59:42.980629+00:00</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009_real_authentication_system</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:52:35.995918+00:00</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010_fix_team_members_schema</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.266393+00:00</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011_audit_trail_schema</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.338142+00:00</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012_fix_production_schema</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.388990+00:00</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013_agentic_rag_tables</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.460906+00:00</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014_knowledge_graph_tables</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.545030+00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015_add_drive_columns</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.612613+00:00</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016_add_summary_to_parent_docs</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.672606+00:00</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>017_zantara_media_content</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-12-13T05:29:42.738119+00:00</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>018_collective_memory</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:33:00.776132+00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>migration_019</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-12-16T20:04:17.368336+00:00</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020_collective_embeddings</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:33:00.830736+00:00</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>021_memory_kg_integration</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:33:00.873135+00:00</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>022_dedup_constraints</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:10:26.425961+00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>migration_023</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-12-20T16:20:02.483522+00:00</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>024_dashboard_enhancements</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-12-22T09:45:59.041095+00:00</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>025_conversation_ratings</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-12-22T10:23:36.189320+00:00</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>026_review_queue</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:11:37.714319+00:00</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>033_crm_enhanced_client_profile</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:16:50.133753+00:00</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>036_team_departments</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>36</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2026-01-02T08:16:13.216186+00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>037_folder_access_rules</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>37</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:16:50.241770+00:00</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>038_news_items</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>38</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:18:53.489726+00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>039_team_member_avatars</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>39</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:16:50.393839+00:00</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>040_email_activity_log</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>40</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:16:50.442785+00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>041_fix_daily_hours_view</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>41</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:55:25.074455+00:00</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>042_permissive_daily_hours</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>42</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2026-01-06T12:55:10.150982+00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -453,14 +3164,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>migration_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>executed_at</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>checksum</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009_real_authentication_system</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:52:35.981408+00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DEPRECATED - No-op migration, kept for reference</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008_v5_3_ultra_hybrid</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-16T21:59:42.881264+00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6ca0c5bfca7e905eeceebf62f48dc8d8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Zantara v5.3 Ultra Hybrid - Complete user profiles, feedback system, and analytics tables</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>migration_v5_3_final</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-12-22T10:53:03.523613+00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6ca0c5bfca7e905eeceebf62f48dc8d8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Zantara v5.3 Ultra Hybrid - Complete user profiles, feedback system, and analytics tables</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -471,14 +3281,740 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>department_code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>allowed_folders</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>context_folder</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>["BALI ZERO", "BOARD", "MARKETING", "SETUP TEAM", "TAX DEPARTMENT"]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Board: sees all</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>118</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>["MARKETING"]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Marketing: only Marketing</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>119</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>["SETUP TEAM"]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Setup: only Setup</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>120</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>["TAX DEPARTMENT", "BALI ZERO", "BOARD", "MARKETING", "SETUP TEAM"]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Tax Supervisor: sees all folders</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2026-01-05T01:01:48.360665</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ruslana@balizero.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>["BOARD", "SETUP TEAM", "TAX DEPARTMENT"]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>150</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Ruslana: custom access to BOARD, SETUP TEAM, TAX DEPARTMENT only</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:54:12.156213</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:54:12.156213</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>102</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BOARD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Board: access to BOARD contents</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>103</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MARKETING</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Board: access to MARKETING contents</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>104</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members", "KBLI - PRESENTATION"]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SETUP TEAM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Board: access to SETUP contents</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>105</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TAX DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Board: access to TAX contents</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.636707</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>106</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>founders</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BOARD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Founders: access to BOARD contents</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>107</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>founders</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MARKETING</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Founders: access to MARKETING contents</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>108</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>founders</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members", "KBLI - PRESENTATION"]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SETUP TEAM</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Founders: access to SETUP contents</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>109</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>founders</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TAX DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Founders: access to TAX contents</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.637596</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>110</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>setup</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members", "KBLI - PRESENTATION"]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SETUP TEAM</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Setup: access to SETUP TEAM contents</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.638453</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.638453</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TAX DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Tax: access to TAX DEPARTMENT contents</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.639311</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.639311</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>["_Shared", "Members"]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MARKETING</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Marketing: access to MARKETING contents</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.640105</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2026-01-04T23:04:27.640105</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -489,14 +4025,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>user_email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>operation</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>email_subject</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>recipient_email</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>has_attachments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>attachment_count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2026-01-06T22:59:30.524293+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2026-01-06T20:48:04.718905+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2026-01-06T20:47:28.827124+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2026-01-06T20:46:59.747537+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>antonellosiano@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:25:07.298510+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>antonellosiano@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:17:19.212835+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>antonellosiano@gmail.com</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:14:42.081904+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>deleted</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2026-01-05T23:54:37.241465+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7dfe56b2-ff63-4d40-b78b-90c018127a02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>zero@balizero.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>antonellosiano@gmail.com</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2026-01-05T03:39:21.182624+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7116d1e3-58a3-4629-b583-27f10e1295c4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tax@balizero.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>vdewik16@gmail.com</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:52:29.552138+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>